--- a/datasets/poultry_livestock_dataset.xlsx
+++ b/datasets/poultry_livestock_dataset.xlsx
@@ -5,17 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhadjarab/pa/tonveto/ai_back/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhadjarab/pa/tonveto/ai_back/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7BD540-5D72-3440-940E-B2942DE3A633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9F15AD-7AEF-9B42-8414-86C1A4E266D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -31,154 +44,154 @@
     <t>Symptoms</t>
   </si>
   <si>
-    <t>poultry</t>
-  </si>
-  <si>
-    <t>Avian Influenza</t>
-  </si>
-  <si>
-    <t>Fever, Sore throat, Cough, Headache, Muscle pain, Hard breathing, Conjunctivitis (the_inner_part_of_th_eyelid)</t>
-  </si>
-  <si>
-    <t>livestock</t>
-  </si>
-  <si>
-    <t>Rift Valley fever</t>
-  </si>
-  <si>
-    <t>Fever, Lethargy, Sudden death, Nasal discharge, Excess salivation, Anorexia, Diarrhea</t>
-  </si>
-  <si>
-    <t>Bovine tuberculosis</t>
-  </si>
-  <si>
-    <t>general state of illness, Weight loss, Sudden death</t>
-  </si>
-  <si>
-    <t>Lumpy skin</t>
-  </si>
-  <si>
-    <t>Nodules on the skin, Damaged skin</t>
-  </si>
-  <si>
     <t>Peste des Petits Ruminants</t>
   </si>
   <si>
-    <t>Fever, Oral lesions, Diarrhea, Sudden death</t>
-  </si>
-  <si>
-    <t>Bovine viral diarrhea</t>
-  </si>
-  <si>
-    <t>Fever, Lethargy, Anorexia, Eye secretions, Nasal discharge, Oral lesions, Diarrhea ,Reduction in production</t>
-  </si>
-  <si>
     <t>Newcastle</t>
   </si>
   <si>
     <t>Sneezing, Nasal discharge, Cough, Diarrhea, Shudder, Drooping wings, Paralysis, Swelling of the tissues around the eyes and the neck, sudden death,  Reduction in production</t>
   </si>
   <si>
-    <t>Infectious Coryza</t>
-  </si>
-  <si>
-    <t>Swollen head or face, Sneezing, Cough, Eye secretions, Nasal discharge, Anorexia, Hard breathing</t>
-  </si>
-  <si>
-    <t>Thrush</t>
-  </si>
-  <si>
-    <t>Anorexia, Oral lesions, Slow growth, Scaly eyes, Drooping wings, Hard breathing, noisy breathing</t>
-  </si>
-  <si>
-    <t>Mastitis (bacterial infection)</t>
-  </si>
-  <si>
-    <t>Abnormal size, hardness of the udder, Fever, Milk color change</t>
-  </si>
-  <si>
-    <t>Tuberculosis</t>
-  </si>
-  <si>
-    <t>Abscess, Cough, Swollen lymph nodes, Increased heart rate</t>
-  </si>
-  <si>
-    <t>Bloat</t>
-  </si>
-  <si>
-    <t>Flatulence, Excess salivation, Whining, Anorexia, Vomiting</t>
-  </si>
-  <si>
-    <t>Equine encephalomyelitis</t>
-  </si>
-  <si>
-    <t>Fever, Double vision, Irregular gait, Shudder, Oral lesions, Walks aimlessly</t>
-  </si>
-  <si>
-    <t>Hemorrhagic septicemia</t>
-  </si>
-  <si>
-    <t>Fever, Hard breathing, Cough, Eye secretions, Nasal discharge</t>
-  </si>
-  <si>
-    <t>Brucellosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Swelling of the testicles, bacteria localizes in the joints, Fever, Shudder, Anorexia, Sweating, Lethargy</t>
-  </si>
-  <si>
-    <t>Sheep Pox</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fever, Damaged skin, Inflammation of the nasal mucosa, Skin lesions, Eye secretions, Nasal discharge, Swollen eyelids, Lethargy, Anorexia, Paralysis</t>
-  </si>
-  <si>
-    <t>Pneumonia</t>
-  </si>
-  <si>
-    <t>Fever, Anorexia, Hard breathing, Eye secretions, Nasal discharge, Excess salivation, Diarrhea</t>
-  </si>
-  <si>
-    <t>Foot and mouth disease (FMD)</t>
-  </si>
-  <si>
-    <t>Fever, Skin lesions,Damaged Skin, Hard breathing, Excess salivation, Oral lesions</t>
-  </si>
-  <si>
-    <t>Bluetongue</t>
-  </si>
-  <si>
-    <t>Fever, Oral lesions, Hard breathing, Purple-coloured tongue, Lameness</t>
-  </si>
-  <si>
-    <t>Anaplasmosis</t>
-  </si>
-  <si>
-    <t>Fever, Pale around eyes, Lethargy, Weight loss, Reduction in production, Aggressive behaviour</t>
-  </si>
-  <si>
-    <t>Rabies</t>
-  </si>
-  <si>
-    <t>Anorexia, Pruritus, Lameness, Tenesmus, Excess salivation, Aggressive behaviour</t>
-  </si>
-  <si>
-    <t>Necrotic enteritis</t>
-  </si>
-  <si>
-    <t>Anorexia, Lethargy, Fluffy feathers, Eyes closed, Diarrhea</t>
-  </si>
-  <si>
-    <t>Ascarids</t>
-  </si>
-  <si>
-    <t>Anorexia, Diarrhea, Slow growth, Lethargy, Ruffled feathers, Weight loss, changes in behaviour</t>
-  </si>
-  <si>
-    <t>Avian Pox</t>
-  </si>
-  <si>
-    <t>Swollen eyelids, Eyes closed, Oral lesions, Weight loss, Anorexia</t>
+    <t>bétail</t>
+  </si>
+  <si>
+    <t>volaille</t>
+  </si>
+  <si>
+    <t>La grippe aviaire</t>
+  </si>
+  <si>
+    <t>fièvre de la vallée du Rift</t>
+  </si>
+  <si>
+    <t>Tuberculose bovine</t>
+  </si>
+  <si>
+    <t>Peau grumeleuse</t>
+  </si>
+  <si>
+    <t>Diarrhée virale bovine</t>
+  </si>
+  <si>
+    <t>Coryza infectieux</t>
+  </si>
+  <si>
+    <t>Muguet</t>
+  </si>
+  <si>
+    <t>Mastite (infection bactérienne)</t>
+  </si>
+  <si>
+    <t>Tuberculose</t>
+  </si>
+  <si>
+    <t>Gonfler</t>
+  </si>
+  <si>
+    <t>Encéphalomyélite équine</t>
+  </si>
+  <si>
+    <t>Septicémie hémorragique</t>
+  </si>
+  <si>
+    <t>Brucellose</t>
+  </si>
+  <si>
+    <t>Clavelée</t>
+  </si>
+  <si>
+    <t>Pneumonie</t>
+  </si>
+  <si>
+    <t>Fièvre aphteuse (FA)</t>
+  </si>
+  <si>
+    <t>Fièvre catarrhale du mouton</t>
+  </si>
+  <si>
+    <t>Anaplasmose</t>
+  </si>
+  <si>
+    <t>Rage</t>
+  </si>
+  <si>
+    <t>Entérite nécrotique</t>
+  </si>
+  <si>
+    <t>Ascaris</t>
+  </si>
+  <si>
+    <t>Variole aviaire</t>
+  </si>
+  <si>
+    <t>Fièvre, Mal de gorge, Toux, Maux de tête, Douleur musculaire, Respiration difficile, Conjonctivite (la_partie_intérieure_de_la_paupière)</t>
+  </si>
+  <si>
+    <t>Fièvre, léthargie, mort subite, écoulement nasal, salivation excessive, anorexie, diarrhée</t>
+  </si>
+  <si>
+    <t>état général de la maladie, perte de poids, mort subite</t>
+  </si>
+  <si>
+    <t>Nodules sur la peau, Peau lésée</t>
+  </si>
+  <si>
+    <t>Fièvre, lésions buccales, diarrhée, mort subite</t>
+  </si>
+  <si>
+    <t>Fièvre, léthargie, anorexie, sécrétions oculaires, écoulement nasal, lésions buccales, diarrhée, réduction de la production</t>
+  </si>
+  <si>
+    <t>Tête ou visage enflé, éternuements, toux, sécrétions oculaires, écoulement nasal, anorexie, respiration difficile</t>
+  </si>
+  <si>
+    <t>Anorexie, lésions buccales, croissance lente, yeux squameux, ailes tombantes, respiration difficile, respiration bruyante</t>
+  </si>
+  <si>
+    <t>Taille anormale, dureté de la mamelle, fièvre, changement de couleur du lait</t>
+  </si>
+  <si>
+    <t>Abcès, toux, ganglions lymphatiques enflés, augmentation de la fréquence cardiaque</t>
+  </si>
+  <si>
+    <t>Flatulences, salivation excessive, gémissements, anorexie, vomissements</t>
+  </si>
+  <si>
+    <t>Fièvre, vision double, démarche irrégulière, frissons, lésions buccales, marche sans but</t>
+  </si>
+  <si>
+    <t>Fièvre, respiration difficile, toux, sécrétions oculaires, écoulement nasal</t>
+  </si>
+  <si>
+    <t>Gonflement des testicules, bactéries localisées dans les articulations, Fièvre, Frissons, Anorexie, Transpiration, Léthargie</t>
+  </si>
+  <si>
+    <t>Fièvre, peau endommagée, inflammation de la muqueuse nasale, lésions cutanées, sécrétions oculaires, écoulement nasal, paupières enflées, léthargie, anorexie, paralysie</t>
+  </si>
+  <si>
+    <t>Fièvre, anorexie, respiration difficile, sécrétions oculaires, écoulement nasal, salivation excessive, diarrhée</t>
+  </si>
+  <si>
+    <t>Fièvre, lésions cutanées, peau endommagée, respiration difficile, salivation excessive, lésions buccales</t>
+  </si>
+  <si>
+    <t>Fièvre, Lésions buccales, Respiration difficile, Langue violacée, Boiterie</t>
+  </si>
+  <si>
+    <t>Fièvre, pâleur autour des yeux, léthargie, perte de poids, réduction de la production, comportement agressif</t>
+  </si>
+  <si>
+    <t>Anorexie, prurit, boiterie, ténesme, salivation excessive, comportement agressif</t>
+  </si>
+  <si>
+    <t>Anorexie, Léthargie, Plumes pelucheuses, Yeux fermés, Diarrhée</t>
+  </si>
+  <si>
+    <t>Anorexie, Diarrhée, Croissance lente, Léthargie, Plumes ébouriffées, Perte de poids, changements de comportement</t>
+  </si>
+  <si>
+    <t>Paupières enflées, Yeux fermés, Lésions buccales, Perte de poids, Anorexie</t>
   </si>
 </sst>
 </file>
@@ -544,10 +557,15 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="137.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -562,13 +580,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -576,10 +594,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -587,10 +605,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -601,7 +619,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -609,10 +627,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -620,43 +638,43 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -664,10 +682,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -675,10 +693,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -686,10 +704,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -697,10 +715,10 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -708,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -719,10 +737,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -730,10 +748,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -741,10 +759,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -752,10 +770,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -763,10 +781,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -774,10 +792,10 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -785,40 +803,40 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>52</v>
